--- a/untitled.xlsx
+++ b/untitled.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Софт\SmartMoney\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A9B32A-AC79-494B-B828-D1FE531E711E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Таблица" sheetId="1" r:id="rId1"/>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
@@ -273,6 +274,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -308,6 +326,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -483,12 +518,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -518,7 +551,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45284</v>
+        <v>45406</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -532,7 +565,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45275</v>
+        <v>45397</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -546,7 +579,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45291</v>
+        <v>45412</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -560,7 +593,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45262</v>
+        <v>45384</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -574,7 +607,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45261</v>
+        <v>45383</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -588,7 +621,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45271</v>
+        <v>45393</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -602,7 +635,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45264</v>
+        <v>45386</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -616,7 +649,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45280</v>
+        <v>45402</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -630,7 +663,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45281</v>
+        <v>45403</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -644,7 +677,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45261</v>
+        <v>45383</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -658,7 +691,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45283</v>
+        <v>45405</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -672,7 +705,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45285</v>
+        <v>45407</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -686,7 +719,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45272</v>
+        <v>45394</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -700,7 +733,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45271</v>
+        <v>45393</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -714,7 +747,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45287</v>
+        <v>45409</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -728,7 +761,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45261</v>
+        <v>45383</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -742,7 +775,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45262</v>
+        <v>45384</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -756,7 +789,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45261</v>
+        <v>45383</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -770,7 +803,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45288</v>
+        <v>45410</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -784,7 +817,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45289</v>
+        <v>45411</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -798,7 +831,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45275</v>
+        <v>45397</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -812,7 +845,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45291</v>
+        <v>45412</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -826,7 +859,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45277</v>
+        <v>45399</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -840,7 +873,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45290</v>
+        <v>45403</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -854,7 +887,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45265</v>
+        <v>45387</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>

--- a/untitled.xlsx
+++ b/untitled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Софт\SmartMoney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A9B32A-AC79-494B-B828-D1FE531E711E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF817EED-E3C3-4CAD-8C71-A6C4C5B96E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45406</v>
+        <v>45375</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45397</v>
+        <v>45366</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45384</v>
+        <v>45353</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45393</v>
+        <v>45362</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45386</v>
+        <v>45355</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45402</v>
+        <v>45371</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45403</v>
+        <v>45372</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45405</v>
+        <v>45374</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45407</v>
+        <v>45376</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45394</v>
+        <v>45363</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45393</v>
+        <v>45362</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45409</v>
+        <v>45378</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45384</v>
+        <v>45353</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45410</v>
+        <v>45379</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45411</v>
+        <v>45380</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45397</v>
+        <v>45366</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45399</v>
+        <v>45368</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45403</v>
+        <v>45381</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45387</v>
+        <v>45356</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
